--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/48.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/48.xlsx
@@ -479,13 +479,13 @@
         <v>-7.560399108616606</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.083743548393999</v>
+        <v>-9.057087619808243</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.740323253681213</v>
+        <v>-1.727047658599703</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.783913537661751</v>
+        <v>-7.727184589448552</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.757741297063489</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.738764551868394</v>
+        <v>-9.716782575397136</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.749239111916429</v>
+        <v>-1.739681730841969</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.639191222049311</v>
+        <v>-7.596523407088125</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.852136886668624</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.28722730251398</v>
+        <v>-10.25820166711388</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.749016542768119</v>
+        <v>-1.737966639169702</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.446943847121405</v>
+        <v>-7.404681893548313</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.930800116591169</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.93495589330554</v>
+        <v>-10.9082737801141</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.748532127562975</v>
+        <v>-1.739249684848192</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.022504481295488</v>
+        <v>-6.98460226456869</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.007403159084095</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.55147243412242</v>
+        <v>-11.51785140042487</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.803441245681175</v>
+        <v>-1.79408024914934</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.773161573674814</v>
+        <v>-6.736961356317442</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.122288867328622</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.34888532330343</v>
+        <v>-12.31724122733498</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.589342817310428</v>
+        <v>-1.5777561292955</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.396325820981413</v>
+        <v>-6.361447926211055</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-2.29481766075659</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.98998920885707</v>
+        <v>-12.95729772866128</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.494227237165288</v>
+        <v>-1.483530825743598</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.731655790312664</v>
+        <v>-5.689118898379896</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.556120720002326</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.60407058134539</v>
+        <v>-13.57016151698532</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.383610370455545</v>
+        <v>-1.371015575121804</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.334238937552069</v>
+        <v>-5.300068027135164</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.9221916339544071</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.24048742248169</v>
+        <v>-14.20398608215896</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.305239845644973</v>
+        <v>-1.293954280595405</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.935669962141403</v>
+        <v>-4.896419238221908</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4063044277619506</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.08554320170374</v>
+        <v>-15.04904186138101</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.190944041836704</v>
+        <v>-1.183625444548179</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.369558787265167</v>
+        <v>-4.330229509528622</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.01279525145365306</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.86454831308929</v>
+        <v>-15.82981443365019</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9523106379405628</v>
+        <v>-0.9432507643740884</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.844897843185837</v>
+        <v>-3.810321071380838</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2598700494401929</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.63111573677519</v>
+        <v>-16.59555704225706</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.8632044247997752</v>
+        <v>-0.8548646278895957</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.37358803318654</v>
+        <v>-3.342087952549347</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.409974040577981</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.36194117370318</v>
+        <v>-17.32964246259264</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.6792313852678405</v>
+        <v>-0.6687837276001432</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.794868970673723</v>
+        <v>-2.759559029909588</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4449943145677476</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.12763141309869</v>
+        <v>-18.09178468791804</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4971698219507978</v>
+        <v>-0.4883587021383162</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.514379474592583</v>
+        <v>-2.479370656793808</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.3750978814040771</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.99597839907617</v>
+        <v>-18.95938541263355</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3347336205935025</v>
+        <v>-0.3268258696770999</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.948530145773183</v>
+        <v>-1.910274436869659</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2146650773015833</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.82486518428869</v>
+        <v>-19.79089065841441</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.09085020325782926</v>
+        <v>-0.08434332874549141</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.676419723510748</v>
+        <v>-1.639957660096541</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.02413735114470265</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.56691072475204</v>
+        <v>-20.52848481591158</v>
       </c>
       <c r="F18" t="n">
-        <v>0.01844434086489995</v>
+        <v>0.02094497070766963</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.23520911774458</v>
+        <v>-1.197791316222927</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.3298529003420672</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.28544248931165</v>
+        <v>-21.24239499756806</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2927542700047445</v>
+        <v>0.2980042834442767</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8533459207599555</v>
+        <v>-0.8142915813830867</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.6887397032352244</v>
       </c>
       <c r="E20" t="n">
-        <v>-21.92851022029155</v>
+        <v>-21.88852632741292</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4444155061232993</v>
+        <v>0.4500059194367164</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6210491914392099</v>
+        <v>-0.5826101902959021</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.087544671986002</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.54665020666081</v>
+        <v>-22.50700671365606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6319365597253418</v>
+        <v>0.6371603885591904</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2791960719389005</v>
+        <v>-0.2369864875771756</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.511474592458481</v>
       </c>
       <c r="E22" t="n">
-        <v>-22.999604608076</v>
+        <v>-22.95911011538654</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8007094356580325</v>
+        <v>0.8041527113054064</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1672699749449843</v>
+        <v>-0.1266838361356335</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.952432139940249</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.44423230488386</v>
+        <v>-23.40416985818818</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8816853287341082</v>
+        <v>0.883609897251842</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02373905889114144</v>
+        <v>0.02116753985597897</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-2.401859437019142</v>
       </c>
       <c r="E24" t="n">
-        <v>-23.93512819993438</v>
+        <v>-23.89869232112586</v>
       </c>
       <c r="F24" t="n">
-        <v>1.027572859299462</v>
+        <v>1.028436951287016</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07100227214977255</v>
+        <v>-0.03705393088117685</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-2.852619048565189</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.18685390667225</v>
+        <v>-24.15231641177578</v>
       </c>
       <c r="F25" t="n">
-        <v>1.083058038742697</v>
+        <v>1.084511284358129</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1224495946395718</v>
+        <v>0.1617395954675918</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-3.297280206346024</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.45384523852357</v>
+        <v>-24.41684639069285</v>
       </c>
       <c r="F26" t="n">
-        <v>1.220789064637655</v>
+        <v>1.222438694795713</v>
       </c>
       <c r="G26" t="n">
-        <v>0.01920369442972006</v>
+        <v>0.05774743399576161</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-3.728083485134437</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.50350434320223</v>
+        <v>-24.46840387928357</v>
       </c>
       <c r="F27" t="n">
-        <v>1.189511553148772</v>
+        <v>1.191449213969347</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1835044304687246</v>
+        <v>-0.1454189215021435</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.142036826935922</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.58622151255626</v>
+        <v>-24.54947141847953</v>
       </c>
       <c r="F28" t="n">
-        <v>1.117386056793703</v>
+        <v>1.1187345639864</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.5426524820229541</v>
+        <v>-0.5059285725519125</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.534880213947988</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.39663187510522</v>
+        <v>-24.3575906280312</v>
       </c>
       <c r="F29" t="n">
-        <v>1.132848066449781</v>
+        <v>1.137338726324493</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5942623398250383</v>
+        <v>-0.5615708596292484</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.901885471367022</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.13731263271915</v>
+        <v>-24.09939732368952</v>
       </c>
       <c r="F30" t="n">
-        <v>1.018368970401728</v>
+        <v>1.022938184093491</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.9136883445574709</v>
+        <v>-0.8806695567906377</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.235530488970223</v>
       </c>
       <c r="E31" t="n">
-        <v>-23.91329023879438</v>
+        <v>-23.87299213064755</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9506817647100047</v>
+        <v>0.9561674396006878</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.132159602077354</v>
+        <v>-1.105006165983614</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.528093052503047</v>
       </c>
       <c r="E32" t="n">
-        <v>-23.56706429014493</v>
+        <v>-23.52777428931692</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9252565125913726</v>
+        <v>0.9295246033177753</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.379447018151876</v>
+        <v>-1.351953182184251</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.775234029934207</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.23127290686034</v>
+        <v>-23.19058202962826</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8891217567482087</v>
+        <v>0.8947776315758343</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.661821805842224</v>
+        <v>-1.636972615048628</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.971507535034258</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.77906476670713</v>
+        <v>-22.73435455250263</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8229925350946503</v>
+        <v>0.8257681032970963</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.901698978508329</v>
+        <v>-1.881746308977538</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-6.111570824683421</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.41970723830743</v>
+        <v>-22.37889853034977</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7398825966553733</v>
+        <v>0.7440328566562003</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.184977135094756</v>
+        <v>-2.174031969919072</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.189117002593305</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.84537409724659</v>
+        <v>-21.80165889805807</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7879837172958748</v>
+        <v>0.7927100386217379</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.486859454019275</v>
+        <v>-2.482604455595714</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.200511673328321</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.39701509412884</v>
+        <v>-21.35099564964017</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8062998489714496</v>
+        <v>0.8120473699189673</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.668240217588548</v>
+        <v>-2.663238957903009</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-6.148477337788743</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91195836614573</v>
+        <v>-20.86785039787195</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9023580749211937</v>
+        <v>0.9076211806635676</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.799307261337068</v>
+        <v>-2.793455001966816</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.035957424632107</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.41765847235636</v>
+        <v>-20.37019887455511</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9223369290576677</v>
+        <v>0.9283201114563365</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.861129115355698</v>
+        <v>-2.860343577185195</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.868089882304226</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.75949531619995</v>
+        <v>-19.71041227284632</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9411243836355446</v>
+        <v>0.9457197819329904</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.982782793361017</v>
+        <v>-2.984969207935585</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-5.650281672399091</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.22598397539961</v>
+        <v>-19.17661290138346</v>
       </c>
       <c r="F41" t="n">
-        <v>1.01238578800306</v>
+        <v>1.017112109328923</v>
       </c>
       <c r="G41" t="n">
-        <v>-3.138869227840075</v>
+        <v>-3.142757641784068</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-5.391599843174583</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.46714101039033</v>
+        <v>-18.41966832028623</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9884530584083844</v>
+        <v>0.9920272570841756</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.353281871479023</v>
+        <v>-3.357680885233843</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-5.105752442730429</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.94444391173726</v>
+        <v>-17.89378979204262</v>
       </c>
       <c r="F43" t="n">
-        <v>1.09628126461284</v>
+        <v>1.10287978524507</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.38936425811082</v>
+        <v>-3.391707780319489</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.803661647568109</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.38741879503318</v>
+        <v>-17.34009012026034</v>
       </c>
       <c r="F44" t="n">
-        <v>1.044998714381799</v>
+        <v>1.045640237221044</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.536757403502972</v>
+        <v>-3.536469372840454</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.495078931631008</v>
       </c>
       <c r="E45" t="n">
-        <v>-16.73656114386245</v>
+        <v>-16.68407410176997</v>
       </c>
       <c r="F45" t="n">
-        <v>1.065370337603525</v>
+        <v>1.069271843850359</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.714341399248144</v>
+        <v>-3.716946767513648</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.186586934654125</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.26204371966693</v>
+        <v>-16.20917700079204</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8917664019222373</v>
+        <v>0.8889253722055828</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.874630462939397</v>
+        <v>-3.879801922561879</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.886741749908063</v>
       </c>
       <c r="E47" t="n">
-        <v>-15.66534892535243</v>
+        <v>-15.6164229896329</v>
       </c>
       <c r="F47" t="n">
-        <v>0.969495403893565</v>
+        <v>0.9686051273003277</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.847581765268391</v>
+        <v>-3.846455827224002</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.604566740677312</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.01776434989213</v>
+        <v>-14.96053789417095</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9516636874231341</v>
+        <v>0.9537846404834938</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.993626403467845</v>
+        <v>-3.989724897221011</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.344227628202792</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.51203487572194</v>
+        <v>-14.45804221880266</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8714995171232454</v>
+        <v>0.8698367946623462</v>
       </c>
       <c r="G49" t="n">
-        <v>-4.099111087463632</v>
+        <v>-4.098050610933452</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.107853800413333</v>
       </c>
       <c r="E50" t="n">
-        <v>-13.99143254552354</v>
+        <v>-13.93886694961401</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8652021194563752</v>
+        <v>0.8621385205914113</v>
       </c>
       <c r="G50" t="n">
-        <v>-4.1745620287405</v>
+        <v>-4.168055154228162</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.894542495683028</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.5110104927464</v>
+        <v>-13.46106335740522</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9756226016234928</v>
+        <v>0.9745359404876295</v>
       </c>
       <c r="G51" t="n">
-        <v>-4.268512393932726</v>
+        <v>-4.258902643646898</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.706570474511675</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.87509115911808</v>
+        <v>-12.81803490333384</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8667993804030657</v>
+        <v>0.8628324126420227</v>
       </c>
       <c r="G52" t="n">
-        <v>-4.374926631430275</v>
+        <v>-4.363470866443765</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.54480713015977</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.4730658157572</v>
+        <v>-12.42048712754483</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8795120064623817</v>
+        <v>0.8757021463354394</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.564332976641526</v>
+        <v>-4.551096658468541</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.407438312990595</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.84382355657816</v>
+        <v>-11.78523550136144</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8565481072779942</v>
+        <v>0.8547806463943612</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.746315986141519</v>
+        <v>-4.73791072771713</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.291482482554714</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.46176397505091</v>
+        <v>-11.40515285756329</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8167344143363052</v>
+        <v>0.8169307988789312</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.96507527432392</v>
+        <v>-4.956224877602913</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-2.192996952203707</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.07687645610985</v>
+        <v>-11.02044863086201</v>
       </c>
       <c r="F56" t="n">
-        <v>0.740275365740625</v>
+        <v>0.7392934430274956</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.165871923007472</v>
+        <v>-5.153879373604451</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-2.112504186482148</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.5197335086802</v>
+        <v>-10.46221902229649</v>
       </c>
       <c r="F57" t="n">
-        <v>0.7214093573456978</v>
+        <v>0.7213831727400143</v>
       </c>
       <c r="G57" t="n">
-        <v>-5.24655978542103</v>
+        <v>-5.23533968188567</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-2.049204225437993</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.28413751904334</v>
+        <v>-10.22958189310186</v>
       </c>
       <c r="F58" t="n">
-        <v>0.6357726044579676</v>
+        <v>0.633311251523723</v>
       </c>
       <c r="G58" t="n">
-        <v>-5.387236579455377</v>
+        <v>-5.373738415225557</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-2.001807048558992</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.777897445062314</v>
+        <v>-9.723983341960086</v>
       </c>
       <c r="F59" t="n">
-        <v>0.6652171935490094</v>
+        <v>0.6633188096369592</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.602186007510835</v>
+        <v>-5.587614274447994</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-1.968660084029121</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.64398937159714</v>
+        <v>-9.594552836066782</v>
       </c>
       <c r="F60" t="n">
-        <v>0.649323137899154</v>
+        <v>0.6455132777722117</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.6588102173013</v>
+        <v>-5.644042099695834</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-1.948444650326169</v>
       </c>
       <c r="E61" t="n">
-        <v>-9.266381173036077</v>
+        <v>-9.218843021417769</v>
       </c>
       <c r="F61" t="n">
-        <v>0.6827346947512389</v>
+        <v>0.6771050045292967</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.670436182224753</v>
+        <v>-5.65433264972943</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-1.944241858439578</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.990879844337634</v>
+        <v>-8.944650923003501</v>
       </c>
       <c r="F62" t="n">
-        <v>0.6439945706425715</v>
+        <v>0.6377364498842264</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.757644011453491</v>
+        <v>-5.73488958911457</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-1.957310362893383</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.666308564588403</v>
+        <v>-8.613166907353838</v>
       </c>
       <c r="F63" t="n">
-        <v>0.6048224005401271</v>
+        <v>0.598040587668113</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.747013061546009</v>
+        <v>-5.725306023434427</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-1.988689196165057</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.356675602381582</v>
+        <v>-8.301491545903707</v>
       </c>
       <c r="F64" t="n">
-        <v>0.500542208405779</v>
+        <v>0.4928963035462109</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.673395042666983</v>
+        <v>-5.649828897551876</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-2.037510564675265</v>
       </c>
       <c r="E65" t="n">
-        <v>-8.246084920277521</v>
+        <v>-8.194278677932813</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3631777669903891</v>
+        <v>0.3538560473670801</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.695403203743925</v>
+        <v>-5.670318351499177</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-2.104665928001451</v>
       </c>
       <c r="E66" t="n">
-        <v>-8.046715332603718</v>
+        <v>-7.993599859974835</v>
       </c>
       <c r="F66" t="n">
-        <v>0.3176034607983406</v>
+        <v>0.3090410947398518</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.679967378693529</v>
+        <v>-5.652683019571373</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-2.192112950770118</v>
       </c>
       <c r="E67" t="n">
-        <v>-7.91604105794045</v>
+        <v>-7.864457384744049</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2228151882242439</v>
+        <v>0.2127602996417983</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.632272119441121</v>
+        <v>-5.604306960571194</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-2.299500669680754</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.770768865608657</v>
+        <v>-7.716579824146753</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1676049471406851</v>
+        <v>0.1580999352775919</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.578528216275836</v>
+        <v>-5.549607319298463</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-2.425426413384377</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.702924552282833</v>
+        <v>-7.645554081230389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1612159033539227</v>
+        <v>0.1529677525636353</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.489094695564005</v>
+        <v>-5.458812199091093</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-2.564731161369333</v>
       </c>
       <c r="E70" t="n">
-        <v>-7.710740657079343</v>
+        <v>-7.652794124701864</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05396375847450277</v>
+        <v>0.04521810017622976</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.389776486206671</v>
+        <v>-5.362164819513471</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-2.715821304053954</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.782839968828729</v>
+        <v>-7.729004419543552</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05594069620360341</v>
+        <v>0.0478496530474167</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.220715579611462</v>
+        <v>-5.194282220174018</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-2.875977798972344</v>
       </c>
       <c r="E72" t="n">
-        <v>-7.793117426559484</v>
+        <v>-7.734542463645601</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.01752021504132156</v>
+        <v>-0.02460315087869536</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.140512132403049</v>
+        <v>-5.116671048928265</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-3.040613319441037</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.00865600824282</v>
+        <v>-7.953733797821779</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.05275160198840641</v>
+        <v>-0.05835510760466517</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.872198477964715</v>
+        <v>-4.848134825341622</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-3.203867598279911</v>
       </c>
       <c r="E74" t="n">
-        <v>-8.135546607384828</v>
+        <v>-8.079328258982457</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.108786658150994</v>
+        <v>-0.119155762001641</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.737805989294396</v>
+        <v>-4.713441213705944</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-3.357487315017434</v>
       </c>
       <c r="E75" t="n">
-        <v>-8.48013601817906</v>
+        <v>-8.428094114383198</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1903909817634726</v>
+        <v>-0.1968978562758104</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.494721202432069</v>
+        <v>-4.472542841418185</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-3.497083495314096</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.739219599113976</v>
+        <v>-8.685973203456676</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.1823654001214945</v>
+        <v>-0.1908884892714582</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.204360110008268</v>
+        <v>-4.188020916061793</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-3.617663311222697</v>
       </c>
       <c r="E77" t="n">
-        <v>-9.258015191520213</v>
+        <v>-9.20632677990108</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.2521997434792613</v>
+        <v>-0.2585887872660236</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.983178745800148</v>
+        <v>-3.963383183903458</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-3.714358656192326</v>
       </c>
       <c r="E78" t="n">
-        <v>-9.71095650063257</v>
+        <v>-9.659556119675953</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.1995294091469973</v>
+        <v>-0.2034440076966735</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.894727147801446</v>
+        <v>-3.87745840035321</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.78271381929031</v>
       </c>
       <c r="E79" t="n">
-        <v>-10.15345015207723</v>
+        <v>-10.10432783181507</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.267268984050088</v>
+        <v>-0.2719298438617425</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.748564678876416</v>
+        <v>-3.733285961460122</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.818964360261425</v>
       </c>
       <c r="E80" t="n">
-        <v>-10.75090429995655</v>
+        <v>-10.70007998032497</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.3215234870262009</v>
+        <v>-0.3250845933991504</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.419882416034884</v>
+        <v>-3.404433498681647</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-3.824071798202811</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.43196589378314</v>
+        <v>-11.37887660575995</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3371164197106966</v>
+        <v>-0.3398003417932505</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.257734245340106</v>
+        <v>-3.24092372849133</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.799284541768581</v>
       </c>
       <c r="E82" t="n">
-        <v>-12.27771556505581</v>
+        <v>-12.22740184523505</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.4011639652124205</v>
+        <v>-0.402433918588068</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.919128016944545</v>
+        <v>-2.903155407477639</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.74655256040909</v>
       </c>
       <c r="E83" t="n">
-        <v>-13.19627153243131</v>
+        <v>-13.14633748939296</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.3786713889303351</v>
+        <v>-0.3783048044507668</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.777914438493688</v>
+        <v>-2.764913781771853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.667769969674713</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.14586934984454</v>
+        <v>-14.09181123141105</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.4337114300769516</v>
+        <v>-0.4345362451559803</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.500252879826361</v>
+        <v>-2.485419300706686</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.566319989031058</v>
       </c>
       <c r="E85" t="n">
-        <v>-15.36899155822712</v>
+        <v>-15.31668780837442</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.4846143035255825</v>
+        <v>-0.4819827506543956</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.299914461742269</v>
+        <v>-2.284308436754931</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.450803075532429</v>
       </c>
       <c r="E86" t="n">
-        <v>-16.43372308683049</v>
+        <v>-16.38275475186765</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.5802928526929166</v>
+        <v>-0.5776612998217296</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.059487412356811</v>
+        <v>-2.040870157715877</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.329322224894288</v>
       </c>
       <c r="E87" t="n">
-        <v>-17.60641374466673</v>
+        <v>-17.55164864187979</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5110869398715526</v>
+        <v>-0.5092671097765527</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.996932389379044</v>
+        <v>-1.979362518965448</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.21046359881583</v>
       </c>
       <c r="E88" t="n">
-        <v>-18.98487612626639</v>
+        <v>-18.93223197653981</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.6656415749181288</v>
+        <v>-0.6635075295549275</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.968600646029549</v>
+        <v>-1.950952221798902</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.1009229631622</v>
       </c>
       <c r="E89" t="n">
-        <v>-20.51985698833888</v>
+        <v>-20.46500023943204</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6486870427380936</v>
+        <v>-0.647377812453921</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.955495250884981</v>
+        <v>-1.938082488105485</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.008536532314597</v>
       </c>
       <c r="E90" t="n">
-        <v>-22.15546529005287</v>
+        <v>-22.09948260310165</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6843766602846388</v>
+        <v>-0.6796765235644592</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.96891486129775</v>
+        <v>-1.951344990884154</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.944176347199898</v>
       </c>
       <c r="E91" t="n">
-        <v>-23.86727079430571</v>
+        <v>-23.81208673782784</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.828038499366899</v>
+        <v>-0.8260746539406401</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.011805245407245</v>
+        <v>-1.99561006679203</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.915012148122804</v>
       </c>
       <c r="E92" t="n">
-        <v>-25.60206638234863</v>
+        <v>-25.54576948012921</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.875786127830674</v>
+        <v>-0.8729581904168612</v>
       </c>
       <c r="G92" t="n">
-        <v>-2.075905160120336</v>
+        <v>-2.057314090085085</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.926732729205348</v>
       </c>
       <c r="E93" t="n">
-        <v>-27.62169811101613</v>
+        <v>-27.5621674099948</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.050345801619408</v>
+        <v>-1.047779710262429</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.268794057887486</v>
+        <v>-2.251839525707451</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.979833317099118</v>
       </c>
       <c r="E94" t="n">
-        <v>-29.67372019691407</v>
+        <v>-29.61617952592468</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.077643253044406</v>
+        <v>-1.074317808122608</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.332265542064174</v>
+        <v>-2.31630602490011</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.077771203490871</v>
       </c>
       <c r="E95" t="n">
-        <v>-31.87657870385153</v>
+        <v>-31.81795137172628</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.31166816634026</v>
+        <v>-1.304166276811951</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.544583417248445</v>
+        <v>-2.528519161661648</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.224729385924665</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.13653274348176</v>
+        <v>-34.0787171341327</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.441098672233564</v>
+        <v>-1.435311874377521</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.764115151298508</v>
+        <v>-2.748914987699264</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.415836022279086</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.35172419969612</v>
+        <v>-36.29462866700336</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.61650934570701</v>
+        <v>-1.61461096179496</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.847421474280411</v>
+        <v>-2.828110327588865</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.651100867866563</v>
       </c>
       <c r="E98" t="n">
-        <v>-38.6887526261556</v>
+        <v>-38.6328092161129</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.887087968536962</v>
+        <v>-1.88645953800056</v>
       </c>
       <c r="G98" t="n">
-        <v>-3.110118530799645</v>
+        <v>-3.093438936979286</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.911771426366709</v>
       </c>
       <c r="E99" t="n">
-        <v>-40.99553783305068</v>
+        <v>-40.94159754534277</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.902563070495883</v>
+        <v>-1.903335516363544</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.35773325444521</v>
+        <v>-3.34893522693557</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.203938613554771</v>
       </c>
       <c r="E100" t="n">
-        <v>-43.32616412342055</v>
+        <v>-43.27075749779436</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.240213560783998</v>
+        <v>-2.242871298260868</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.412786387894668</v>
+        <v>-3.393789456471323</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.496973231748155</v>
       </c>
       <c r="E101" t="n">
-        <v>-45.66876987089059</v>
+        <v>-45.61691125933451</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.278338346659104</v>
+        <v>-2.279490469309176</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.675378705991168</v>
+        <v>-3.659576296461204</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.81383859159557</v>
       </c>
       <c r="E102" t="n">
-        <v>-48.20601888470858</v>
+        <v>-48.15760354879988</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.545670078384309</v>
+        <v>-2.55030475359028</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.702741618930375</v>
+        <v>-3.680864380881851</v>
       </c>
     </row>
   </sheetData>
